--- a/文档/正式文档/附件3-功能技术点一览表.xlsx
+++ b/文档/正式文档/附件3-功能技术点一览表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23839D11-442D-4820-966C-0A057451940F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0843B-A524-47ED-B079-0189D50030C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,11 +73,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采用Bootstrap框架技术，采用SMM框架技术，js，图片验证码，ajax，分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采用Bootstrap框架技术，采用SMM框架技术，js，图片验证码，ajax，自定义分页工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用Bootstrap框架技术，采用SMM框架技术，js，图片验证码，ajax，分页，redis，session</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,10 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -546,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,100 +558,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
